--- a/data_pce_lead.xlsx
+++ b/data_pce_lead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchozin\Desktop\Python projects\Dual Mandate Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C4BA2D-8BA3-4C4F-AE6E-1611C9E38B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913372F1-FBB4-4F53-98C8-9DFDA3EBA929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16D40669-29A0-4D3D-B0D8-7FC2648E891A}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{16D40669-29A0-4D3D-B0D8-7FC2648E891A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>series</t>
   </si>
@@ -189,6 +189,162 @@
   </si>
   <si>
     <t>uspric0001</t>
+  </si>
+  <si>
+    <t>ussurv1062</t>
+  </si>
+  <si>
+    <t>Manufacturing, PMI, Prices</t>
+  </si>
+  <si>
+    <t>ussurv1050</t>
+  </si>
+  <si>
+    <t>Services, NMI/PMI, Prices, SA</t>
+  </si>
+  <si>
+    <t>ussurv1046</t>
+  </si>
+  <si>
+    <t>NMI/PMI, New Orders, SA</t>
+  </si>
+  <si>
+    <t>ussurv1049</t>
+  </si>
+  <si>
+    <t>NMI/PMI, Inventories</t>
+  </si>
+  <si>
+    <t>ussurv1058</t>
+  </si>
+  <si>
+    <t>Manufacturing, PMI, Employment</t>
+  </si>
+  <si>
+    <t>ussurv1047</t>
+  </si>
+  <si>
+    <t>Services, NMI/PMI, Employment</t>
+  </si>
+  <si>
+    <t>uslama4977</t>
+  </si>
+  <si>
+    <t>United States, Labor Market Indicators, Labor Market Condition Index, Kansas City Fed LMCI, Level of Activity</t>
+  </si>
+  <si>
+    <t>uslama4978</t>
+  </si>
+  <si>
+    <t>United States, Labor Market Indicators, Labor Market Condition Index, Kansas City Fed LMCI, Momentum</t>
+  </si>
+  <si>
+    <t>uslead0010</t>
+  </si>
+  <si>
+    <t>United States, Leading Indicators, Conference Board, Business Cycle Indicators, Composite Indexes-Leading Economic Indicators, Composite Index of 10 Leading Indicators, SA, Index</t>
+  </si>
+  <si>
+    <t>usmost0036</t>
+  </si>
+  <si>
+    <t>United States, Monetary Statistics, Monetary Aggregates, M2, Total, SA, USD</t>
+  </si>
+  <si>
+    <t>ussurv1134</t>
+  </si>
+  <si>
+    <t>United States, Business Surveys, NFIB, Small Business Economic Trends, Small Business Optimism Index, Database, SA, Index</t>
+  </si>
+  <si>
+    <t>ussurv1395</t>
+  </si>
+  <si>
+    <t>United States, Business Surveys, NFIB, Small Business Economic Trends, Expected Credit Conditions, Next Three Months, Net, Database, SA</t>
+  </si>
+  <si>
+    <t>ussurv1416</t>
+  </si>
+  <si>
+    <t>Single Most Important Problem, Inflation, Database</t>
+  </si>
+  <si>
+    <t>ussurv1419</t>
+  </si>
+  <si>
+    <t>Single Most Important Problem, Cost of Labour, Database</t>
+  </si>
+  <si>
+    <t>ussurv1417</t>
+  </si>
+  <si>
+    <t>Single Most Important Problem, Poor Sales, Database</t>
+  </si>
+  <si>
+    <t>ussurv1418</t>
+  </si>
+  <si>
+    <t>Single Most Important Problem, Financial &amp; Interest Rates</t>
+  </si>
+  <si>
+    <t>ussurv1415</t>
+  </si>
+  <si>
+    <t>Single Most Important Problem, Taxes</t>
+  </si>
+  <si>
+    <t>usrate0827</t>
+  </si>
+  <si>
+    <t>TIPS, 10 Year</t>
+  </si>
+  <si>
+    <t>usrate0851</t>
+  </si>
+  <si>
+    <t>TIPS, 30 Year</t>
+  </si>
+  <si>
+    <t>usrate0803</t>
+  </si>
+  <si>
+    <t>TIPS, 5 Year</t>
+  </si>
+  <si>
+    <t>ustips5f5</t>
+  </si>
+  <si>
+    <t>TIPS, Yield</t>
+  </si>
+  <si>
+    <t>usbkeven5f5</t>
+  </si>
+  <si>
+    <t>Break-Even Inflation Rate</t>
+  </si>
+  <si>
+    <t>uspric0041</t>
+  </si>
+  <si>
+    <t>United States, Import Prices, Locality of Origin, All Commodities, China, Index</t>
+  </si>
+  <si>
+    <t>uslama3349</t>
+  </si>
+  <si>
+    <t>Unemployment, National, Jobless Claims, Continuing, Total</t>
+  </si>
+  <si>
+    <t>usgpfi0221</t>
+  </si>
+  <si>
+    <t>Federal Government Budget, Current Receipts, Tax, on Production &amp; Imports, Customs Duties, AR, USD</t>
+  </si>
+  <si>
+    <t>ussurv1397</t>
+  </si>
+  <si>
+    <t>United States, Business Surveys, NFIB, Small Business Economic Trends, Actual Interest Rate Paid On Short-Term Loans by Borrowers, Average Interest Rate Paid, Report, SA</t>
   </si>
 </sst>
 </file>
@@ -230,7 +386,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -560,19 +727,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6E369D-78D5-4E82-AE65-0E96B3820D11}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -594,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -605,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -616,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -627,7 +794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -638,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -649,7 +816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -660,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -668,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -676,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -684,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -692,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -703,7 +870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -714,7 +881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -725,7 +892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -736,7 +903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -747,7 +914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -758,7 +925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -769,7 +936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -780,7 +947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -791,7 +958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -802,7 +969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -813,7 +980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -824,7 +991,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -835,7 +1002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -846,7 +1013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -857,7 +1024,296 @@
         <v>49</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A53">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>